--- a/00Temporal/operativos/La Mariscal.xlsx
+++ b/00Temporal/operativos/La Mariscal.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="46">
   <si>
     <t>ZONA LA MARISCAL</t>
   </si>
@@ -139,6 +139,24 @@
   </si>
   <si>
     <t xml:space="preserve">Aprobado por: </t>
+  </si>
+  <si>
+    <t>f inicio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f fin </t>
+  </si>
+  <si>
+    <t>complejidad</t>
+  </si>
+  <si>
+    <t>ordenanza</t>
+  </si>
+  <si>
+    <t>zonal</t>
+  </si>
+  <si>
+    <t>responsable</t>
   </si>
 </sst>
 </file>
@@ -148,7 +166,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,6 +226,12 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF404040"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -539,7 +563,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -598,6 +622,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -662,10 +690,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1040,10 +1065,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:H24"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1056,79 +1081,97 @@
     <col min="8" max="8" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="24"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="26"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="27"/>
-    </row>
-    <row r="3" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="29"/>
+    </row>
+    <row r="3" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="32"/>
       <c r="E3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="H3" s="39" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="43" t="s">
+      <c r="D4" s="44"/>
+      <c r="E4" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="38"/>
-    </row>
-    <row r="5" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F4" s="34"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="40"/>
+    </row>
+    <row r="5" spans="1:14" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
-      <c r="B5" s="33"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="39"/>
-    </row>
-    <row r="6" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>1</v>
       </c>
@@ -1153,8 +1196,30 @@
       <c r="H6" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I6" s="46" t="str">
+        <f>TEXT(B6, "aaaa-mm-dd") &amp; " " &amp; SUBSTITUTE(C6,"h",":")</f>
+        <v>2017-10-03 08:00</v>
+      </c>
+      <c r="J6" s="46" t="str">
+        <f>TEXT(B6, "aaaa-mm-dd") &amp; " " &amp; SUBSTITUTE(D6,"h",":")</f>
+        <v>2017-10-03 12:00</v>
+      </c>
+      <c r="K6" s="22">
+        <f>IF(F6="Alta", 1, IF(F6="Medio", 2, IF(F6="Bajo", 3, 0)))</f>
+        <v>2</v>
+      </c>
+      <c r="L6" s="22">
+        <f>IF(E6="Libadores", 1, IF(E6="Espacio Publico", 2, IF(E6="Escombros", 3, IF(E6="Licenciamiento", 4, 0))))</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="22">
+        <v>7</v>
+      </c>
+      <c r="N6" s="22">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>2</v>
       </c>
@@ -1179,8 +1244,30 @@
       <c r="H7" s="20" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="46" t="str">
+        <f t="shared" ref="I7:I16" si="0">TEXT(B7, "aaaa-mm-dd") &amp; " " &amp; SUBSTITUTE(C7,"h",":")</f>
+        <v>2017-10-05 07:00</v>
+      </c>
+      <c r="J7" s="46" t="str">
+        <f t="shared" ref="J7:J16" si="1">TEXT(B7, "aaaa-mm-dd") &amp; " " &amp; SUBSTITUTE(D7,"h",":")</f>
+        <v>2017-10-05 11:00</v>
+      </c>
+      <c r="K7" s="22">
+        <f>IF(F7="Alta", 1, IF(F7="Medio", 2, IF(F7="Bajo", 3, 0)))</f>
+        <v>2</v>
+      </c>
+      <c r="L7" s="22">
+        <f t="shared" ref="L7:L16" si="2">IF(E7="Libadores", 1, IF(E7="Espacio Publico", 2, IF(E7="Escombros", 3, IF(E7="Licenciamiento", 4, 0))))</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="22">
+        <v>7</v>
+      </c>
+      <c r="N7" s="22">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>3</v>
       </c>
@@ -1205,8 +1292,30 @@
       <c r="H8" s="21" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I8" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v>2017-10-10 16:00</v>
+      </c>
+      <c r="J8" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>2017-10-10 20:00</v>
+      </c>
+      <c r="K8" s="22">
+        <f t="shared" ref="K8:K16" si="3">IF(F8="Alta", 1, IF(F8="Medio", 2, IF(F8="Bajo", 3, 0)))</f>
+        <v>2</v>
+      </c>
+      <c r="L8" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="22">
+        <v>7</v>
+      </c>
+      <c r="N8" s="22">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>4</v>
       </c>
@@ -1231,8 +1340,30 @@
       <c r="H9" s="6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I9" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v>2017-10-11 14:00</v>
+      </c>
+      <c r="J9" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>2017-10-11 18:00</v>
+      </c>
+      <c r="K9" s="22">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L9" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="23">
+        <v>7</v>
+      </c>
+      <c r="N9" s="22">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <v>5</v>
       </c>
@@ -1257,8 +1388,30 @@
       <c r="H10" s="21" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I10" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v>2017-10-13 14:00</v>
+      </c>
+      <c r="J10" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>2017-10-13 18:00</v>
+      </c>
+      <c r="K10" s="22">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L10" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="22">
+        <v>7</v>
+      </c>
+      <c r="N10" s="22">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>6</v>
       </c>
@@ -1283,8 +1436,30 @@
       <c r="H11" s="21" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I11" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v>2017-10-17 14:00</v>
+      </c>
+      <c r="J11" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>2017-10-17 18:00</v>
+      </c>
+      <c r="K11" s="22">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L11" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="22">
+        <v>7</v>
+      </c>
+      <c r="N11" s="22">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <v>7</v>
       </c>
@@ -1309,8 +1484,30 @@
       <c r="H12" s="21" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I12" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v>2017-10-19 16:00</v>
+      </c>
+      <c r="J12" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>2017-10-19 20:00</v>
+      </c>
+      <c r="K12" s="22">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L12" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="22">
+        <v>7</v>
+      </c>
+      <c r="N12" s="22">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <v>8</v>
       </c>
@@ -1335,8 +1532,30 @@
       <c r="H13" s="21" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I13" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v>2017-10-20 08:00</v>
+      </c>
+      <c r="J13" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>2017-10-20 12:00</v>
+      </c>
+      <c r="K13" s="22">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L13" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="22">
+        <v>7</v>
+      </c>
+      <c r="N13" s="22">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
         <v>9</v>
       </c>
@@ -1361,8 +1580,30 @@
       <c r="H14" s="21" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I14" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v>2017-10-23 09:00</v>
+      </c>
+      <c r="J14" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>2017-10-23 13:00</v>
+      </c>
+      <c r="K14" s="22">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L14" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="22">
+        <v>7</v>
+      </c>
+      <c r="N14" s="22">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
         <v>10</v>
       </c>
@@ -1387,8 +1628,30 @@
       <c r="H15" s="21" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I15" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v>2017-10-25 10:00</v>
+      </c>
+      <c r="J15" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>2017-10-25 14:00</v>
+      </c>
+      <c r="K15" s="22">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L15" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="22">
+        <v>7</v>
+      </c>
+      <c r="N15" s="22">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
         <v>11</v>
       </c>
@@ -1412,6 +1675,28 @@
       </c>
       <c r="H16" s="21" t="s">
         <v>33</v>
+      </c>
+      <c r="I16" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v>2017-10-27 15:00</v>
+      </c>
+      <c r="J16" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>2017-10-27 19:00</v>
+      </c>
+      <c r="K16" s="22">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L16" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="22">
+        <v>7</v>
+      </c>
+      <c r="N16" s="22">
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1502,27 +1787,27 @@
       <c r="F21" s="11"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
+      <c r="A23" s="22"/>
       <c r="B23" t="s">
         <v>34</v>
       </c>
       <c r="E23" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="45"/>
+      <c r="G23" s="23"/>
       <c r="H23" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
+      <c r="A24" s="22"/>
       <c r="B24" t="s">
         <v>37</v>
       </c>
       <c r="E24" t="s">
         <v>38</v>
       </c>
-      <c r="G24" s="45"/>
+      <c r="G24" s="23"/>
       <c r="H24" t="s">
         <v>39</v>
       </c>
